--- a/public/results/01hpym0hb2pb44p1nw6b4kv923/100_LEVEL_001/ANATOMY.xlsx
+++ b/public/results/01hpym0hb2pb44p1nw6b4kv923/100_LEVEL_001/ANATOMY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>S/N</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>CON/BM/23/002</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Distinction</t>
   </si>
 </sst>
 </file>
@@ -474,13 +480,13 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>9.0</v>
+        <v>100.0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
